--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\Documents\GitHub\ORC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -16,6 +21,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>TURBINE</t>
+  </si>
+  <si>
+    <t>REGENERATOR</t>
+  </si>
+  <si>
+    <t>CONDENSER</t>
+  </si>
+  <si>
+    <t>HEATER</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +76,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +180,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +220,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +402,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\Documents\GitHub\ORC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyscripts\github\ORC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BB7D1-3AFF-4F1E-B0C9-399C4571A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,14 +51,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,46 +76,178 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+  <borders count="16">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -117,11 +257,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,51 +555,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyscripts\github\ORC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maximov\py\Github\ORC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BB7D1-3AFF-4F1E-B0C9-399C4571A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A93A9-0B93-449D-B743-EFA379F843D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>HEATER</t>
+  </si>
+  <si>
+    <t>COST</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -160,32 +163,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -257,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -274,8 +251,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,63 +531,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="2.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
